--- a/data/trans_bre/P16A01-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A01-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P16A01-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A01-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,32 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>3,1%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,95%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,23%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-4,58; 5,16</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-7,04; 2,77</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-5,83; 2,54</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-49,99; 110,69</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,47; 34,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,47; 46,35</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,38</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,44%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,05%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>78,92%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,15; 3,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,69; -0,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,0; 3,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,05; 5,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,39; 66,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,38; -6,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,56; 63,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,26; 255,97</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,44</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,95%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,14%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,88%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,4%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,31; 0,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,88; 4,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,32; 5,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,41; 6,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,84; 16,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,42; 59,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,99; 134,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,89; 122,76</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,03%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,09%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,33%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,82%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,68; 2,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,73; 5,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,09; 1,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,05; 2,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,22; 62,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,87; 69,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,76; 26,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,92; 50,59</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,32</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,49</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,57%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,97%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,63%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,96%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,56; 5,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,69; 3,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,3; 5,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 8,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,23; 110,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,78; 46,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,46; 135,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,91; 172,7</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,57</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,37%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,71%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,84%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,18%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,47; 3,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,14; 1,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,85; 6,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,08; 2,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,04; 88,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,6; 12,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,49; 142,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,37; 44,83</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,61</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,47</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,62%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,85%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,5%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,38%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,89; 1,12</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,39; 0,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,77; 2,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,6; 1,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,77; 18,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,19; 5,82</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,8; 39,32</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,72; 20,52</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,9%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,31%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,57%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,06; 3,72</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,19; 3,61</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,05; 6,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,24; 3,07</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,44; 56,94</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,36; 93,18</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,58; 100,91</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,8; 82,6</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,19%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,92%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,93%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,73; 0,69</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,57; 0,27</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,78; 1,98</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 1,97</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,35; 11,24</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,06; 3,2</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,98; 28,57</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,05; 32,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A01-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A01-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>-1,39</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,58%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-17,23%</t>
+          <t>-16,78%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,95; 4,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 2,54</t>
+          <t>-5,93; 2,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,77; 47,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-50,47; 46,35</t>
+          <t>-51,74; 48,51</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>78,92%</t>
+          <t>83,22%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 5,77</t>
+          <t>0,09; 5,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 255,97</t>
+          <t>-3,26; 257,19</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>35,4%</t>
+          <t>36,47%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 6,05</t>
+          <t>-1,32; 6,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-16,89; 122,76</t>
+          <t>-16,58; 125,64</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>-2,59</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,09%</t>
+          <t>55,26%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-15,82%</t>
+          <t>-30,97%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 5,03</t>
+          <t>-0,52; 7,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 2,81</t>
+          <t>-8,83; 1,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,87; 69,78</t>
+          <t>-8,77; 166,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-56,92; 50,59</t>
+          <t>-69,96; 28,83</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,49</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>63,96%</t>
+          <t>60,27%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 8,72</t>
+          <t>-0,28; 8,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 172,7</t>
+          <t>-4,51; 165,11</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-11,18%</t>
+          <t>-11,47%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 2,65</t>
+          <t>-5,21; 2,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-48,37; 44,83</t>
+          <t>-49,12; 44,25</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>-3,17</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-18,38%</t>
+          <t>-30,11%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 1,82</t>
+          <t>-8,99; 1,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-52,72; 20,52</t>
+          <t>-70,49; 9,48</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>20,57%</t>
+          <t>54,14%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 3,07</t>
+          <t>-0,02; 5,14</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-20,8; 82,6</t>
+          <t>-2,87; 244,33</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>8,18%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 1,97</t>
+          <t>-1,17; 2,24</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 32,23</t>
+          <t>-15,29; 41,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A01-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A01-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 5,16</t>
+          <t>-4,56; 5,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 4,64</t>
+          <t>-6,26; 5,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 2,77</t>
+          <t>-6,91; 2,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 2,66</t>
+          <t>-6,47; 2,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-49,99; 110,69</t>
+          <t>-49,74; 104,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-43,77; 47,99</t>
+          <t>-41,88; 51,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-51,47; 34,54</t>
+          <t>-50,67; 35,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-51,74; 48,51</t>
+          <t>-54,89; 49,92</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 3,07</t>
+          <t>-3,36; 2,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,69; -0,77</t>
+          <t>-8,77; -0,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 3,58</t>
+          <t>-3,18; 3,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,09; 5,92</t>
+          <t>0,23; 6,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-40,39; 66,4</t>
+          <t>-41,63; 55,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-56,38; -6,61</t>
+          <t>-55,61; -0,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-32,56; 63,29</t>
+          <t>-36,61; 56,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 257,19</t>
+          <t>-6,39; 254,09</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 0,25</t>
+          <t>-5,32; 0,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 4,88</t>
+          <t>-4,85; 5,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 5,77</t>
+          <t>-2,28; 5,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 6,14</t>
+          <t>-1,52; 6,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-83,84; 16,19</t>
+          <t>-84,16; 22,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-36,42; 59,5</t>
+          <t>-36,16; 60,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-31,99; 134,31</t>
+          <t>-30,83; 134,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-16,58; 125,64</t>
+          <t>-17,23; 132,29</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 2,9</t>
+          <t>-3,85; 2,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 7,75</t>
+          <t>-0,84; 7,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 1,61</t>
+          <t>-5,84; 2,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,83; 1,67</t>
+          <t>-8,47; 1,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-51,22; 62,74</t>
+          <t>-50,38; 77,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 166,2</t>
+          <t>-9,81; 161,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-53,76; 26,0</t>
+          <t>-55,99; 30,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-69,96; 28,83</t>
+          <t>-69,44; 28,56</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 5,11</t>
+          <t>-4,81; 5,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 3,93</t>
+          <t>-8,59; 4,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 5,92</t>
+          <t>-3,4; 6,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 8,24</t>
+          <t>0,06; 9,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-51,23; 110,96</t>
+          <t>-52,97; 108,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-55,78; 46,5</t>
+          <t>-55,86; 47,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-37,46; 135,65</t>
+          <t>-38,84; 170,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 165,11</t>
+          <t>-0,8; 186,73</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 3,66</t>
+          <t>-4,29; 4,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-10,14; 1,35</t>
+          <t>-10,72; 0,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 6,73</t>
+          <t>-2,33; 7,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 2,57</t>
+          <t>-5,28; 3,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-57,04; 88,29</t>
+          <t>-54,06; 98,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-56,6; 12,62</t>
+          <t>-57,67; 6,71</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-32,49; 142,56</t>
+          <t>-27,15; 168,85</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-49,12; 44,25</t>
+          <t>-49,69; 55,43</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 1,12</t>
+          <t>-4,64; 1,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 0,37</t>
+          <t>-5,44; 0,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 2,57</t>
+          <t>-3,96; 2,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 1,01</t>
+          <t>-9,27; 0,5</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-51,77; 18,1</t>
+          <t>-48,06; 23,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-53,19; 5,82</t>
+          <t>-50,78; 12,22</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-36,8; 39,32</t>
+          <t>-37,45; 41,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-70,49; 9,48</t>
+          <t>-68,67; 4,02</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 3,72</t>
+          <t>-2,35; 3,44</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 3,61</t>
+          <t>-1,27; 3,61</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 6,0</t>
+          <t>0,06; 5,86</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 5,14</t>
+          <t>-0,21; 5,16</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-21,44; 56,94</t>
+          <t>-23,45; 52,85</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-19,36; 93,18</t>
+          <t>-21,41; 92,54</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 100,91</t>
+          <t>-0,31; 99,54</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 244,33</t>
+          <t>-5,51; 232,8</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 0,69</t>
+          <t>-1,75; 0,73</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 0,27</t>
+          <t>-2,66; 0,27</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 1,98</t>
+          <t>-0,68; 1,97</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 2,24</t>
+          <t>-1,14; 2,22</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-22,35; 11,24</t>
+          <t>-23,42; 11,55</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-25,06; 3,2</t>
+          <t>-25,51; 3,53</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 28,57</t>
+          <t>-8,04; 28,1</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-15,29; 41,87</t>
+          <t>-14,76; 40,2</t>
         </is>
       </c>
     </row>
